--- a/df_with_market_trend_ketwords_tfidf_scores_for_dashboard.xlsx
+++ b/df_with_market_trend_ketwords_tfidf_scores_for_dashboard.xlsx
@@ -9,11 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="release" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trend" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="popular" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hot" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="top" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="latest" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="popular" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -791,795 +787,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dm</t>
+          <t>use</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>forevertrendy01</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>please</t>
+          <t>serum</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>skin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hey</t>
+          <t>recently</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>product</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>hey</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>beminimalist</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>respond</t>
+          <t>please</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>query</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TF-IDF Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>beminimalist</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sunscreen</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>thank</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>brand</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>know</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>really</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TF-IDF Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>screenshot</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>dm</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>please</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C5" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>hey</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C6" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C7" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>send</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C9" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>skin</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C11" t="n">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TF-IDF Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>skin</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C5" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>serum</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C6" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>beminimalist</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C7" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>hey</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C8" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
           <t>acid</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C9" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C10" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>niacinamide</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.02</v>
       </c>
       <c r="C11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TF-IDF Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>recently</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>serum</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C4" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>acid</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C5" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>niacinamide</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C6" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C7" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>skin</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C8" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C9" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C10" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>beminimalist</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
